--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_E2.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_E2.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\project\UK\UniversalK\nts.uk\file\pr\nts.uk.file.pr.infra\src\main\resources\report\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18675" windowHeight="5655"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="圧着式(Z折り)" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -91,9 +95,7 @@
     <t>999999999999</t>
   </si>
   <si>
-    <t xml:space="preserve">ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ
-ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ
-ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ
+    <t xml:space="preserve">ＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮＮ
 </t>
   </si>
 </sst>
@@ -128,14 +130,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="IPA明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="IPA明朝"/>
@@ -144,14 +138,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="IPA明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="IPA明朝"/>
       <family val="1"/>
@@ -184,6 +170,16 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="IPA明朝"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="IPA明朝"/>
     </font>
   </fonts>
   <fills count="2">
@@ -270,10 +266,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -281,91 +277,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -713,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -732,7 +728,7 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1">
+    <row r="1" spans="1:11" ht="18" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
@@ -747,7 +743,7 @@
       <c r="J1" s="14"/>
       <c r="K1" s="9"/>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    <row r="4" spans="1:11" ht="13.5" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
@@ -762,7 +758,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1">
+    <row r="5" spans="1:11">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -775,7 +771,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="9"/>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1">
+    <row r="6" spans="1:11">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -788,7 +784,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    <row r="7" spans="1:11" ht="13.5" customHeight="1">
       <c r="A7" s="15" t="s">
         <v>14</v>
       </c>
@@ -803,7 +799,7 @@
       <c r="J7" s="15"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    <row r="8" spans="1:11" ht="13.5" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -816,7 +812,7 @@
       <c r="J8" s="15"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="B13" s="16" t="s">
         <v>2</v>
       </c>
@@ -833,7 +829,7 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="B14" s="17" t="s">
         <v>3</v>
       </c>
@@ -850,9 +846,7 @@
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:12" s="1" customFormat="1"/>
-    <row r="16" spans="1:12" s="1" customFormat="1"/>
-    <row r="22" spans="1:12" s="1" customFormat="1">
+    <row r="22" spans="1:10">
       <c r="A22" s="20" t="s">
         <v>7</v>
       </c>
@@ -884,7 +878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="1" customFormat="1">
+    <row r="23" spans="1:10">
       <c r="A23" s="21"/>
       <c r="B23" s="3">
         <v>9999999999</v>
@@ -914,7 +908,7 @@
         <v>9999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="1" customFormat="1">
+    <row r="24" spans="1:10">
       <c r="A24" s="21"/>
       <c r="B24" s="2" t="s">
         <v>4</v>
@@ -944,7 +938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="1" customFormat="1">
+    <row r="25" spans="1:10">
       <c r="A25" s="21"/>
       <c r="B25" s="3">
         <v>9999999999</v>
@@ -974,7 +968,7 @@
         <v>9999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="1" customFormat="1">
+    <row r="26" spans="1:10">
       <c r="A26" s="21"/>
       <c r="B26" s="2" t="s">
         <v>4</v>
@@ -1004,7 +998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="1" customFormat="1">
+    <row r="27" spans="1:10">
       <c r="A27" s="21"/>
       <c r="B27" s="3">
         <v>9999999999</v>
@@ -1034,7 +1028,7 @@
         <v>9999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="1" customFormat="1">
+    <row r="28" spans="1:10">
       <c r="A28" s="21"/>
       <c r="B28" s="2" t="s">
         <v>4</v>
@@ -1064,7 +1058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="1" customFormat="1">
+    <row r="29" spans="1:10">
       <c r="A29" s="21"/>
       <c r="B29" s="3">
         <v>9999999999</v>
@@ -1094,7 +1088,7 @@
         <v>9999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="1" customFormat="1">
+    <row r="30" spans="1:10">
       <c r="A30" s="21"/>
       <c r="B30" s="2" t="s">
         <v>4</v>
@@ -1124,7 +1118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="1" customFormat="1">
+    <row r="31" spans="1:10">
       <c r="A31" s="22"/>
       <c r="B31" s="3">
         <v>9999999999</v>
@@ -1154,7 +1148,7 @@
         <v>9999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="1" customFormat="1">
+    <row r="33" spans="1:10">
       <c r="A33" s="20" t="s">
         <v>8</v>
       </c>
@@ -1186,7 +1180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="1" customFormat="1">
+    <row r="34" spans="1:10">
       <c r="A34" s="21"/>
       <c r="B34" s="3">
         <v>9999999999</v>
@@ -1216,7 +1210,7 @@
         <v>9999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="1" customFormat="1">
+    <row r="35" spans="1:10">
       <c r="A35" s="21"/>
       <c r="B35" s="2" t="s">
         <v>4</v>
@@ -1246,7 +1240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="1" customFormat="1">
+    <row r="36" spans="1:10">
       <c r="A36" s="21"/>
       <c r="B36" s="3">
         <v>9999999999</v>
@@ -1276,7 +1270,7 @@
         <v>9999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="1" customFormat="1">
+    <row r="37" spans="1:10">
       <c r="A37" s="21"/>
       <c r="B37" s="2" t="s">
         <v>4</v>
@@ -1306,7 +1300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="1" customFormat="1">
+    <row r="38" spans="1:10">
       <c r="A38" s="21"/>
       <c r="B38" s="3">
         <v>9999999999</v>
@@ -1336,7 +1330,7 @@
         <v>9999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="1" customFormat="1">
+    <row r="39" spans="1:10">
       <c r="A39" s="21"/>
       <c r="B39" s="2" t="s">
         <v>4</v>
@@ -1366,7 +1360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="1" customFormat="1">
+    <row r="40" spans="1:10">
       <c r="A40" s="21"/>
       <c r="B40" s="3">
         <v>9999999999</v>
@@ -1396,7 +1390,7 @@
         <v>9999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="1" customFormat="1">
+    <row r="41" spans="1:10">
       <c r="A41" s="21"/>
       <c r="B41" s="2" t="s">
         <v>4</v>
@@ -1426,7 +1420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="1" customFormat="1">
+    <row r="42" spans="1:10">
       <c r="A42" s="22"/>
       <c r="B42" s="3">
         <v>9999999999</v>
@@ -1456,7 +1450,7 @@
         <v>9999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="1" customFormat="1">
+    <row r="44" spans="1:10">
       <c r="A44" s="23" t="s">
         <v>9</v>
       </c>
@@ -1488,7 +1482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="1" customFormat="1">
+    <row r="45" spans="1:10">
       <c r="A45" s="24"/>
       <c r="B45" s="8" t="s">
         <v>5</v>
@@ -1518,7 +1512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="1" customFormat="1">
+    <row r="46" spans="1:10">
       <c r="A46" s="24"/>
       <c r="B46" s="2" t="s">
         <v>4</v>
@@ -1548,7 +1542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="1" customFormat="1">
+    <row r="47" spans="1:10">
       <c r="A47" s="24"/>
       <c r="B47" s="8" t="s">
         <v>5</v>
@@ -1578,7 +1572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="1" customFormat="1">
+    <row r="48" spans="1:10">
       <c r="A48" s="24"/>
       <c r="B48" s="2" t="s">
         <v>4</v>
@@ -1608,7 +1602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="1" customFormat="1">
+    <row r="49" spans="1:10">
       <c r="A49" s="24"/>
       <c r="B49" s="8" t="s">
         <v>5</v>
@@ -1638,7 +1632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="1" customFormat="1">
+    <row r="50" spans="1:10">
       <c r="A50" s="24"/>
       <c r="B50" s="2" t="s">
         <v>4</v>
@@ -1668,7 +1662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="1" customFormat="1">
+    <row r="51" spans="1:10">
       <c r="A51" s="24"/>
       <c r="B51" s="8" t="s">
         <v>5</v>
@@ -1698,7 +1692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="1" customFormat="1">
+    <row r="52" spans="1:10">
       <c r="A52" s="24"/>
       <c r="B52" s="2" t="s">
         <v>4</v>
@@ -1728,7 +1722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:12" s="1" customFormat="1">
+    <row r="53" spans="1:10">
       <c r="A53" s="25"/>
       <c r="B53" s="8" t="s">
         <v>5</v>
@@ -1758,7 +1752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="1" customFormat="1" ht="14.25" customHeight="1">
+    <row r="54" spans="1:10" ht="14.25" customHeight="1">
       <c r="A54" s="26" t="s">
         <v>10</v>
       </c>
@@ -1790,7 +1784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:12" s="1" customFormat="1">
+    <row r="55" spans="1:10">
       <c r="A55" s="27"/>
       <c r="B55" s="3">
         <v>9999999999</v>
@@ -1820,7 +1814,7 @@
         <v>9999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="1" customFormat="1">
+    <row r="56" spans="1:10">
       <c r="A56" s="28" t="s">
         <v>11</v>
       </c>
@@ -1842,7 +1836,7 @@
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="1:12" s="1" customFormat="1">
+    <row r="57" spans="1:10">
       <c r="A57" s="29"/>
       <c r="B57" s="3">
         <v>9999999999</v>
@@ -1862,7 +1856,7 @@
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    <row r="58" spans="1:10" ht="13.5" customHeight="1">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -1874,7 +1868,7 @@
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
     </row>
-    <row r="59" spans="1:12" s="1" customFormat="1">
+    <row r="59" spans="1:10">
       <c r="A59" s="11" t="s">
         <v>16</v>
       </c>
@@ -1888,7 +1882,7 @@
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
     </row>
-    <row r="60" spans="1:12" s="1" customFormat="1">
+    <row r="60" spans="1:10">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -1900,7 +1894,7 @@
       <c r="I60" s="12"/>
       <c r="J60" s="12"/>
     </row>
-    <row r="61" spans="1:12" s="1" customFormat="1">
+    <row r="61" spans="1:10">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
@@ -1912,7 +1906,7 @@
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
     </row>
-    <row r="62" spans="1:12" s="1" customFormat="1">
+    <row r="62" spans="1:10">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -1924,9 +1918,7 @@
       <c r="I62" s="12"/>
       <c r="J62" s="12"/>
     </row>
-    <row r="63" spans="1:12" s="1" customFormat="1" ht="8.25" customHeight="1"/>
-    <row r="64" spans="1:12" s="1" customFormat="1"/>
-    <row r="65" spans="1:12" s="1" customFormat="1"/>
+    <row r="63" spans="1:10" ht="8.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="A59:J62"/>

--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_E2.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_E2.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\project\UK\UniversalK\nts.uk\file\pr\nts.uk.file.pr.infra\src\main\resources\report\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18675" windowHeight="5655"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="圧着式(Z折り)" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -210,16 +206,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -250,6 +243,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -278,7 +277,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -627,11 +626,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:A57"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="1" customWidth="1"/>
     <col min="2" max="5" width="9.85546875" style="1" customWidth="1"/>
@@ -644,173 +643,184 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" customHeight="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:22" ht="12" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="7"/>
-    </row>
-    <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:22" ht="12" customHeight="1"/>
+    <row r="3" spans="1:22" ht="12" customHeight="1"/>
+    <row r="4" spans="1:22" ht="12" customHeight="1">
+      <c r="A4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A7" s="15" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:22" ht="12" customHeight="1">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:22" ht="12" customHeight="1">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:22" ht="12" customHeight="1">
+      <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="8"/>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="M11" s="12"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-    </row>
-    <row r="13" spans="1:22" ht="15" customHeight="1">
-      <c r="B13" s="16" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="12" customHeight="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="12" customHeight="1"/>
+    <row r="10" spans="1:22" ht="12" customHeight="1"/>
+    <row r="11" spans="1:22" ht="12" customHeight="1">
+      <c r="M11" s="11"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+    </row>
+    <row r="12" spans="1:22" ht="12" customHeight="1">
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+    </row>
+    <row r="13" spans="1:22" ht="12" customHeight="1">
+      <c r="B13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="19" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="16" t="s">
+      <c r="G13" s="21"/>
+      <c r="H13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-    </row>
-    <row r="14" spans="1:22" ht="15" customHeight="1">
-      <c r="B14" s="18" t="s">
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+    </row>
+    <row r="14" spans="1:22" ht="12" customHeight="1">
+      <c r="B14" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="21" t="s">
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="18" t="s">
+      <c r="G14" s="22"/>
+      <c r="H14" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-    </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1">
-      <c r="A22" s="10" t="s">
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+    </row>
+    <row r="15" spans="1:22" ht="12" customHeight="1"/>
+    <row r="16" spans="1:22" ht="12" customHeight="1"/>
+    <row r="17" spans="1:10" ht="12" customHeight="1"/>
+    <row r="18" spans="1:10" ht="12" customHeight="1"/>
+    <row r="19" spans="1:10" ht="12" customHeight="1"/>
+    <row r="20" spans="1:10" ht="12" customHeight="1"/>
+    <row r="21" spans="1:10" ht="12" customHeight="1"/>
+    <row r="22" spans="1:10" ht="12" customHeight="1">
+      <c r="A22" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C22"/>
@@ -822,9 +832,9 @@
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" ht="15">
-      <c r="A23" s="9"/>
-      <c r="B23" s="3">
+    <row r="23" spans="1:10" ht="12" customHeight="1">
+      <c r="A23" s="8"/>
+      <c r="B23" s="2">
         <v>9999999999</v>
       </c>
       <c r="C23"/>
@@ -836,9 +846,9 @@
       <c r="I23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:10" ht="15">
+    <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24"/>
-      <c r="B24"/>
+      <c r="B24" s="23"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
@@ -848,7 +858,11 @@
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="29" spans="1:10" ht="15">
+    <row r="25" spans="1:10" ht="12" customHeight="1"/>
+    <row r="26" spans="1:10" ht="12" customHeight="1"/>
+    <row r="27" spans="1:10" ht="12" customHeight="1"/>
+    <row r="28" spans="1:10" ht="12" customHeight="1"/>
+    <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -860,7 +874,7 @@
       <c r="I29"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:10" ht="15">
+    <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -872,7 +886,7 @@
       <c r="I30"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:10" ht="15">
+    <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -884,8 +898,9 @@
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="33" spans="1:10" ht="15">
-      <c r="A33" s="22"/>
+    <row r="32" spans="1:10" ht="12" customHeight="1"/>
+    <row r="33" spans="1:10" ht="12" customHeight="1">
+      <c r="A33" s="12"/>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -896,8 +911,8 @@
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:10" ht="15">
-      <c r="A34" s="22"/>
+    <row r="34" spans="1:10" ht="12" customHeight="1">
+      <c r="A34" s="12"/>
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
@@ -908,8 +923,8 @@
       <c r="I34"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="1:10" ht="15">
-      <c r="A35" s="22"/>
+    <row r="35" spans="1:10" ht="12" customHeight="1">
+      <c r="A35" s="12"/>
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
@@ -920,8 +935,8 @@
       <c r="I35"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="1:10" ht="15">
-      <c r="A36" s="22"/>
+    <row r="36" spans="1:10" ht="12" customHeight="1">
+      <c r="A36" s="12"/>
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
@@ -932,8 +947,8 @@
       <c r="I36"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:10" ht="15">
-      <c r="A37" s="22"/>
+    <row r="37" spans="1:10" ht="12" customHeight="1">
+      <c r="A37" s="12"/>
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
@@ -944,8 +959,8 @@
       <c r="I37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="1:10" ht="15">
-      <c r="A38" s="22"/>
+    <row r="38" spans="1:10" ht="12" customHeight="1">
+      <c r="A38" s="12"/>
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
@@ -956,8 +971,8 @@
       <c r="I38"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:10" ht="15">
-      <c r="A39" s="22"/>
+    <row r="39" spans="1:10" ht="12" customHeight="1">
+      <c r="A39" s="12"/>
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
@@ -968,8 +983,8 @@
       <c r="I39"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="1:10" ht="15">
-      <c r="A40" s="22"/>
+    <row r="40" spans="1:10" ht="12" customHeight="1">
+      <c r="A40" s="12"/>
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
@@ -980,8 +995,8 @@
       <c r="I40"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="1:10" ht="15">
-      <c r="A41" s="22"/>
+    <row r="41" spans="1:10" ht="12" customHeight="1">
+      <c r="A41" s="12"/>
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
@@ -992,8 +1007,8 @@
       <c r="I41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="1:10" ht="15">
-      <c r="A42" s="22"/>
+    <row r="42" spans="1:10" ht="12" customHeight="1">
+      <c r="A42" s="12"/>
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
@@ -1004,7 +1019,7 @@
       <c r="I42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="1:10" ht="15">
+    <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -1016,8 +1031,8 @@
       <c r="I43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="1:10" ht="15">
-      <c r="A44" s="22"/>
+    <row r="44" spans="1:10" ht="12" customHeight="1">
+      <c r="A44" s="12"/>
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
@@ -1028,20 +1043,20 @@
       <c r="I44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="1:10" ht="15">
-      <c r="A45" s="22"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-    </row>
-    <row r="46" spans="1:10" ht="15">
-      <c r="A46" s="22"/>
+    <row r="45" spans="1:10" ht="12" customHeight="1">
+      <c r="A45" s="12"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+    </row>
+    <row r="46" spans="1:10" ht="12" customHeight="1">
+      <c r="A46" s="12"/>
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
@@ -1052,20 +1067,20 @@
       <c r="I46"/>
       <c r="J46"/>
     </row>
-    <row r="47" spans="1:10" ht="15">
-      <c r="A47" s="22"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-    </row>
-    <row r="48" spans="1:10" ht="15">
-      <c r="A48" s="22"/>
+    <row r="47" spans="1:10" ht="12" customHeight="1">
+      <c r="A47" s="12"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+    </row>
+    <row r="48" spans="1:10" ht="12" customHeight="1">
+      <c r="A48" s="12"/>
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
@@ -1076,20 +1091,20 @@
       <c r="I48"/>
       <c r="J48"/>
     </row>
-    <row r="49" spans="1:10" ht="15">
-      <c r="A49" s="22"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-    </row>
-    <row r="50" spans="1:10" ht="15">
-      <c r="A50" s="22"/>
+    <row r="49" spans="1:10" ht="12" customHeight="1">
+      <c r="A49" s="12"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+    </row>
+    <row r="50" spans="1:10" ht="12" customHeight="1">
+      <c r="A50" s="12"/>
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50"/>
@@ -1100,20 +1115,20 @@
       <c r="I50"/>
       <c r="J50"/>
     </row>
-    <row r="51" spans="1:10" ht="15">
-      <c r="A51" s="22"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-    </row>
-    <row r="52" spans="1:10" ht="15">
-      <c r="A52" s="22"/>
+    <row r="51" spans="1:10" ht="12" customHeight="1">
+      <c r="A51" s="12"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+    </row>
+    <row r="52" spans="1:10" ht="12" customHeight="1">
+      <c r="A52" s="12"/>
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
@@ -1124,20 +1139,20 @@
       <c r="I52"/>
       <c r="J52"/>
     </row>
-    <row r="53" spans="1:10" ht="15">
-      <c r="A53" s="22"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-    </row>
-    <row r="54" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A54" s="22"/>
+    <row r="53" spans="1:10" ht="12" customHeight="1">
+      <c r="A53" s="12"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+    </row>
+    <row r="54" spans="1:10" ht="12" customHeight="1">
+      <c r="A54" s="12"/>
       <c r="B54"/>
       <c r="C54"/>
       <c r="D54"/>
@@ -1148,8 +1163,8 @@
       <c r="I54"/>
       <c r="J54"/>
     </row>
-    <row r="55" spans="1:10" ht="15">
-      <c r="A55" s="22"/>
+    <row r="55" spans="1:10" ht="12" customHeight="1">
+      <c r="A55" s="12"/>
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
@@ -1160,8 +1175,8 @@
       <c r="I55"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="1:10" ht="15">
-      <c r="A56" s="22"/>
+    <row r="56" spans="1:10" ht="12" customHeight="1">
+      <c r="A56" s="12"/>
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
@@ -1172,8 +1187,8 @@
       <c r="I56"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="1:10" ht="15">
-      <c r="A57" s="22"/>
+    <row r="57" spans="1:10" ht="12" customHeight="1">
+      <c r="A57" s="12"/>
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
@@ -1184,19 +1199,23 @@
       <c r="I57"/>
       <c r="J57"/>
     </row>
-    <row r="58" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A58" s="4"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-    </row>
-    <row r="63" spans="1:10" ht="8.25" customHeight="1"/>
+    <row r="58" spans="1:10" ht="12" customHeight="1">
+      <c r="A58" s="3"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="1:10" ht="12" customHeight="1"/>
+    <row r="60" spans="1:10" ht="12" customHeight="1"/>
+    <row r="61" spans="1:10" ht="12" customHeight="1"/>
+    <row r="62" spans="1:10" ht="12" customHeight="1"/>
+    <row r="63" spans="1:10" ht="12" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A4:J6"/>

--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_E2.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_E2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18345" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="圧着式(Z折り)" sheetId="2" r:id="rId1"/>
@@ -149,7 +149,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -173,25 +173,51 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -213,9 +239,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -231,12 +254,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
@@ -249,6 +266,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -267,17 +296,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -302,15 +328,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>89833</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>115127</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -624,220 +650,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V63"/>
+  <dimension ref="A2:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="1" customWidth="1"/>
-    <col min="2" max="5" width="9.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="1.85546875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="4" max="6" width="9.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="2.140625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="12" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="2" spans="2:23" ht="12" customHeight="1">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:22" ht="12" customHeight="1"/>
-    <row r="3" spans="1:22" ht="12" customHeight="1"/>
-    <row r="4" spans="1:22" ht="12" customHeight="1">
-      <c r="A4" s="14" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="5" spans="2:23" ht="12" customHeight="1">
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:22" ht="12" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:22" ht="12" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:22" ht="12" customHeight="1">
-      <c r="A7" s="16" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="2:23" ht="12" customHeight="1">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="2:23" ht="12" customHeight="1">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="2:23" ht="12" customHeight="1">
+      <c r="B8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:22" ht="12" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:22" ht="12" customHeight="1"/>
-    <row r="10" spans="1:22" ht="12" customHeight="1"/>
-    <row r="11" spans="1:22" ht="12" customHeight="1">
-      <c r="M11" s="11"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-    </row>
-    <row r="12" spans="1:22" ht="12" customHeight="1">
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-    </row>
-    <row r="13" spans="1:22" ht="12" customHeight="1">
-      <c r="B13" s="17" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="2:23" ht="12" customHeight="1">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="12" spans="2:23" ht="12" customHeight="1">
+      <c r="N12" s="8"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+    </row>
+    <row r="13" spans="2:23" ht="12" customHeight="1">
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+    </row>
+    <row r="14" spans="2:23" ht="12" customHeight="1">
+      <c r="C14" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="20" t="s">
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="17" t="s">
+      <c r="H14" s="22"/>
+      <c r="I14" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-    </row>
-    <row r="14" spans="1:22" ht="12" customHeight="1">
-      <c r="B14" s="19" t="s">
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+    </row>
+    <row r="15" spans="2:23" ht="12" customHeight="1">
+      <c r="C15" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="22" t="s">
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="19" t="s">
+      <c r="H15" s="23"/>
+      <c r="I15" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-    </row>
-    <row r="15" spans="1:22" ht="12" customHeight="1"/>
-    <row r="16" spans="1:22" ht="12" customHeight="1"/>
-    <row r="17" spans="1:10" ht="12" customHeight="1"/>
-    <row r="18" spans="1:10" ht="12" customHeight="1"/>
-    <row r="19" spans="1:10" ht="12" customHeight="1"/>
-    <row r="20" spans="1:10" ht="12" customHeight="1"/>
-    <row r="21" spans="1:10" ht="12" customHeight="1"/>
-    <row r="22" spans="1:10" ht="12" customHeight="1">
-      <c r="A22" s="9" t="s">
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+    </row>
+    <row r="23" spans="2:11" ht="12" customHeight="1">
+      <c r="B23" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="C23" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-    </row>
-    <row r="23" spans="1:10" ht="12" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="2">
-        <v>9999999999</v>
-      </c>
-      <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
@@ -845,11 +845,13 @@
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
-    </row>
-    <row r="24" spans="1:10" ht="12" customHeight="1">
-      <c r="A24"/>
-      <c r="B24" s="23"/>
-      <c r="C24"/>
+      <c r="K23"/>
+    </row>
+    <row r="24" spans="2:11" ht="12" customHeight="1">
+      <c r="B24" s="14"/>
+      <c r="C24" s="12">
+        <v>9999999999</v>
+      </c>
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
@@ -857,25 +859,21 @@
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
-    </row>
-    <row r="25" spans="1:10" ht="12" customHeight="1"/>
-    <row r="26" spans="1:10" ht="12" customHeight="1"/>
-    <row r="27" spans="1:10" ht="12" customHeight="1"/>
-    <row r="28" spans="1:10" ht="12" customHeight="1"/>
-    <row r="29" spans="1:10" ht="12" customHeight="1">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-    </row>
-    <row r="30" spans="1:10" ht="12" customHeight="1">
-      <c r="A30"/>
+      <c r="K24"/>
+    </row>
+    <row r="25" spans="2:11" ht="12" customHeight="1">
+      <c r="B25"/>
+      <c r="C25" s="11"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+    </row>
+    <row r="30" spans="2:11" ht="12" customHeight="1">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -885,9 +883,9 @@
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
-    </row>
-    <row r="31" spans="1:10" ht="12" customHeight="1">
-      <c r="A31"/>
+      <c r="K30"/>
+    </row>
+    <row r="31" spans="2:11" ht="12" customHeight="1">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -897,23 +895,22 @@
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
-    </row>
-    <row r="32" spans="1:10" ht="12" customHeight="1"/>
-    <row r="33" spans="1:10" ht="12" customHeight="1">
-      <c r="A33" s="12"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-    </row>
-    <row r="34" spans="1:10" ht="12" customHeight="1">
-      <c r="A34" s="12"/>
-      <c r="B34"/>
+      <c r="K31"/>
+    </row>
+    <row r="32" spans="2:11" ht="12" customHeight="1">
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+    </row>
+    <row r="34" spans="2:11" ht="12" customHeight="1">
+      <c r="B34" s="9"/>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
@@ -922,10 +919,10 @@
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
-    </row>
-    <row r="35" spans="1:10" ht="12" customHeight="1">
-      <c r="A35" s="12"/>
-      <c r="B35"/>
+      <c r="K34"/>
+    </row>
+    <row r="35" spans="2:11" ht="12" customHeight="1">
+      <c r="B35" s="9"/>
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
@@ -934,10 +931,10 @@
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
-    </row>
-    <row r="36" spans="1:10" ht="12" customHeight="1">
-      <c r="A36" s="12"/>
-      <c r="B36"/>
+      <c r="K35"/>
+    </row>
+    <row r="36" spans="2:11" ht="12" customHeight="1">
+      <c r="B36" s="9"/>
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
@@ -946,10 +943,10 @@
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
-    </row>
-    <row r="37" spans="1:10" ht="12" customHeight="1">
-      <c r="A37" s="12"/>
-      <c r="B37"/>
+      <c r="K36"/>
+    </row>
+    <row r="37" spans="2:11" ht="12" customHeight="1">
+      <c r="B37" s="9"/>
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
@@ -958,10 +955,10 @@
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
-    </row>
-    <row r="38" spans="1:10" ht="12" customHeight="1">
-      <c r="A38" s="12"/>
-      <c r="B38"/>
+      <c r="K37"/>
+    </row>
+    <row r="38" spans="2:11" ht="12" customHeight="1">
+      <c r="B38" s="9"/>
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
@@ -970,10 +967,10 @@
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
-    </row>
-    <row r="39" spans="1:10" ht="12" customHeight="1">
-      <c r="A39" s="12"/>
-      <c r="B39"/>
+      <c r="K38"/>
+    </row>
+    <row r="39" spans="2:11" ht="12" customHeight="1">
+      <c r="B39" s="9"/>
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
@@ -982,10 +979,10 @@
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
-    </row>
-    <row r="40" spans="1:10" ht="12" customHeight="1">
-      <c r="A40" s="12"/>
-      <c r="B40"/>
+      <c r="K39"/>
+    </row>
+    <row r="40" spans="2:11" ht="12" customHeight="1">
+      <c r="B40" s="9"/>
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
@@ -994,10 +991,10 @@
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
-    </row>
-    <row r="41" spans="1:10" ht="12" customHeight="1">
-      <c r="A41" s="12"/>
-      <c r="B41"/>
+      <c r="K40"/>
+    </row>
+    <row r="41" spans="2:11" ht="12" customHeight="1">
+      <c r="B41" s="9"/>
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
@@ -1006,10 +1003,10 @@
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
-    </row>
-    <row r="42" spans="1:10" ht="12" customHeight="1">
-      <c r="A42" s="12"/>
-      <c r="B42"/>
+      <c r="K41"/>
+    </row>
+    <row r="42" spans="2:11" ht="12" customHeight="1">
+      <c r="B42" s="9"/>
       <c r="C42"/>
       <c r="D42"/>
       <c r="E42"/>
@@ -1018,10 +1015,10 @@
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
-    </row>
-    <row r="43" spans="1:10" ht="12" customHeight="1">
-      <c r="A43"/>
-      <c r="B43"/>
+      <c r="K42"/>
+    </row>
+    <row r="43" spans="2:11" ht="12" customHeight="1">
+      <c r="B43" s="9"/>
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
@@ -1030,9 +1027,9 @@
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
-    </row>
-    <row r="44" spans="1:10" ht="12" customHeight="1">
-      <c r="A44" s="12"/>
+      <c r="K43"/>
+    </row>
+    <row r="44" spans="2:11" ht="12" customHeight="1">
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
@@ -1042,130 +1039,130 @@
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
-    </row>
-    <row r="45" spans="1:10" ht="12" customHeight="1">
-      <c r="A45" s="12"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-    </row>
-    <row r="46" spans="1:10" ht="12" customHeight="1">
-      <c r="A46" s="12"/>
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
-    </row>
-    <row r="47" spans="1:10" ht="12" customHeight="1">
-      <c r="A47" s="12"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-    </row>
-    <row r="48" spans="1:10" ht="12" customHeight="1">
-      <c r="A48" s="12"/>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-      <c r="I48"/>
-      <c r="J48"/>
-    </row>
-    <row r="49" spans="1:10" ht="12" customHeight="1">
-      <c r="A49" s="12"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-    </row>
-    <row r="50" spans="1:10" ht="12" customHeight="1">
-      <c r="A50" s="12"/>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-      <c r="I50"/>
-      <c r="J50"/>
-    </row>
-    <row r="51" spans="1:10" ht="12" customHeight="1">
-      <c r="A51" s="12"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-    </row>
-    <row r="52" spans="1:10" ht="12" customHeight="1">
-      <c r="A52" s="12"/>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
-      <c r="J52"/>
-    </row>
-    <row r="53" spans="1:10" ht="12" customHeight="1">
-      <c r="A53" s="12"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-    </row>
-    <row r="54" spans="1:10" ht="12" customHeight="1">
-      <c r="A54" s="12"/>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
-    </row>
-    <row r="55" spans="1:10" ht="12" customHeight="1">
-      <c r="A55" s="12"/>
-      <c r="B55"/>
+      <c r="K44"/>
+    </row>
+    <row r="45" spans="2:11" ht="12" customHeight="1">
+      <c r="B45" s="9"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+    </row>
+    <row r="46" spans="2:11" ht="12" customHeight="1">
+      <c r="B46" s="9"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+    </row>
+    <row r="47" spans="2:11" ht="12" customHeight="1">
+      <c r="B47" s="9"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+    </row>
+    <row r="48" spans="2:11" ht="12" customHeight="1">
+      <c r="B48" s="9"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+    </row>
+    <row r="49" spans="2:11" ht="12" customHeight="1">
+      <c r="B49" s="9"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+    </row>
+    <row r="50" spans="2:11" ht="12" customHeight="1">
+      <c r="B50" s="9"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+    </row>
+    <row r="51" spans="2:11" ht="12" customHeight="1">
+      <c r="B51" s="9"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+    </row>
+    <row r="52" spans="2:11" ht="12" customHeight="1">
+      <c r="B52" s="9"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+    </row>
+    <row r="53" spans="2:11" ht="12" customHeight="1">
+      <c r="B53" s="9"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+    </row>
+    <row r="54" spans="2:11" ht="12" customHeight="1">
+      <c r="B54" s="9"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+    </row>
+    <row r="55" spans="2:11" ht="12" customHeight="1">
+      <c r="B55" s="9"/>
       <c r="C55"/>
       <c r="D55"/>
       <c r="E55"/>
@@ -1174,10 +1171,10 @@
       <c r="H55"/>
       <c r="I55"/>
       <c r="J55"/>
-    </row>
-    <row r="56" spans="1:10" ht="12" customHeight="1">
-      <c r="A56" s="12"/>
-      <c r="B56"/>
+      <c r="K55"/>
+    </row>
+    <row r="56" spans="2:11" ht="12" customHeight="1">
+      <c r="B56" s="9"/>
       <c r="C56"/>
       <c r="D56"/>
       <c r="E56"/>
@@ -1186,10 +1183,10 @@
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
-    </row>
-    <row r="57" spans="1:10" ht="12" customHeight="1">
-      <c r="A57" s="12"/>
-      <c r="B57"/>
+      <c r="K56"/>
+    </row>
+    <row r="57" spans="2:11" ht="12" customHeight="1">
+      <c r="B57" s="9"/>
       <c r="C57"/>
       <c r="D57"/>
       <c r="E57"/>
@@ -1198,35 +1195,43 @@
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
-    </row>
-    <row r="58" spans="1:10" ht="12" customHeight="1">
-      <c r="A58" s="3"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-    </row>
-    <row r="59" spans="1:10" ht="12" customHeight="1"/>
-    <row r="60" spans="1:10" ht="12" customHeight="1"/>
-    <row r="61" spans="1:10" ht="12" customHeight="1"/>
-    <row r="62" spans="1:10" ht="12" customHeight="1"/>
-    <row r="63" spans="1:10" ht="12" customHeight="1"/>
+      <c r="K57"/>
+    </row>
+    <row r="58" spans="2:11" ht="12" customHeight="1">
+      <c r="B58" s="9"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+    </row>
+    <row r="59" spans="2:11" ht="12" customHeight="1">
+      <c r="B59" s="2"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A4:J6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A7:J8"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="B5:K7"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B8:K9"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>

--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_E2.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_E2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18345" windowHeight="8505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22575" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="圧着式(Z折り)" sheetId="2" r:id="rId1"/>
@@ -63,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +140,11 @@
       <color theme="1"/>
       <name val="IPA明朝"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="IPA明朝"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -272,11 +277,11 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -650,11 +655,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:W59"/>
+  <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:K9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" style="1" customWidth="1"/>
@@ -669,7 +676,8 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" ht="12" customHeight="1">
+    <row r="1" spans="2:23" ht="10.5" customHeight="1"/>
+    <row r="2" spans="2:23" ht="10.5" customHeight="1">
       <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
@@ -684,7 +692,9 @@
       <c r="K2" s="16"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="5" spans="2:23" ht="12" customHeight="1">
+    <row r="3" spans="2:23" ht="10.5" customHeight="1"/>
+    <row r="4" spans="2:23" ht="10.5" customHeight="1"/>
+    <row r="5" spans="2:23" ht="10.5" customHeight="1">
       <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
@@ -699,7 +709,7 @@
       <c r="K5" s="15"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="2:23" ht="12" customHeight="1">
+    <row r="6" spans="2:23" ht="10.5" customHeight="1">
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -712,7 +722,7 @@
       <c r="K6" s="15"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="2:23" ht="12" customHeight="1">
+    <row r="7" spans="2:23" ht="10.5" customHeight="1">
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -725,7 +735,7 @@
       <c r="K7" s="15"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="2:23" ht="12" customHeight="1">
+    <row r="8" spans="2:23" ht="10.5" customHeight="1">
       <c r="B8" s="17" t="s">
         <v>5</v>
       </c>
@@ -740,7 +750,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="2:23" ht="12" customHeight="1">
+    <row r="9" spans="2:23" ht="10.5" customHeight="1">
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -753,7 +763,9 @@
       <c r="K9" s="17"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="12" spans="2:23" ht="12" customHeight="1">
+    <row r="10" spans="2:23" ht="10.5" customHeight="1"/>
+    <row r="11" spans="2:23" ht="10.5" customHeight="1"/>
+    <row r="12" spans="2:23" ht="10.5" customHeight="1">
       <c r="N12" s="8"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
@@ -765,7 +777,7 @@
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
     </row>
-    <row r="13" spans="2:23" ht="12" customHeight="1">
+    <row r="13" spans="2:23" ht="10.5" customHeight="1">
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
@@ -777,7 +789,7 @@
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
     </row>
-    <row r="14" spans="2:23" ht="12" customHeight="1">
+    <row r="14" spans="2:23" ht="10.5" customHeight="1">
       <c r="C14" s="18" t="s">
         <v>7</v>
       </c>
@@ -804,7 +816,7 @@
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
     </row>
-    <row r="15" spans="2:23" ht="12" customHeight="1">
+    <row r="15" spans="2:23" ht="10.5" customHeight="1">
       <c r="C15" s="20" t="s">
         <v>0</v>
       </c>
@@ -831,8 +843,15 @@
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
     </row>
-    <row r="23" spans="2:11" ht="12" customHeight="1">
-      <c r="B23" s="13" t="s">
+    <row r="16" spans="2:23" ht="10.5" customHeight="1"/>
+    <row r="17" spans="2:11" ht="10.5" customHeight="1"/>
+    <row r="18" spans="2:11" ht="10.5" customHeight="1"/>
+    <row r="19" spans="2:11" ht="10.5" customHeight="1"/>
+    <row r="20" spans="2:11" ht="10.5" customHeight="1"/>
+    <row r="21" spans="2:11" ht="10.5" customHeight="1"/>
+    <row r="22" spans="2:11" ht="10.5" customHeight="1"/>
+    <row r="23" spans="2:11" ht="10.5" customHeight="1">
+      <c r="B23" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -847,8 +866,8 @@
       <c r="J23"/>
       <c r="K23"/>
     </row>
-    <row r="24" spans="2:11" ht="12" customHeight="1">
-      <c r="B24" s="14"/>
+    <row r="24" spans="2:11" ht="10.5" customHeight="1">
+      <c r="B24" s="13"/>
       <c r="C24" s="12">
         <v>9999999999</v>
       </c>
@@ -861,7 +880,7 @@
       <c r="J24"/>
       <c r="K24"/>
     </row>
-    <row r="25" spans="2:11" ht="12" customHeight="1">
+    <row r="25" spans="2:11" ht="10.5" customHeight="1">
       <c r="B25"/>
       <c r="C25" s="11"/>
       <c r="D25"/>
@@ -873,7 +892,11 @@
       <c r="J25"/>
       <c r="K25"/>
     </row>
-    <row r="30" spans="2:11" ht="12" customHeight="1">
+    <row r="26" spans="2:11" ht="10.5" customHeight="1"/>
+    <row r="27" spans="2:11" ht="10.5" customHeight="1"/>
+    <row r="28" spans="2:11" ht="10.5" customHeight="1"/>
+    <row r="29" spans="2:11" ht="10.5" customHeight="1"/>
+    <row r="30" spans="2:11" ht="10.5" customHeight="1">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -885,7 +908,7 @@
       <c r="J30"/>
       <c r="K30"/>
     </row>
-    <row r="31" spans="2:11" ht="12" customHeight="1">
+    <row r="31" spans="2:11" ht="10.5" customHeight="1">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -897,7 +920,7 @@
       <c r="J31"/>
       <c r="K31"/>
     </row>
-    <row r="32" spans="2:11" ht="12" customHeight="1">
+    <row r="32" spans="2:11" ht="10.5" customHeight="1">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -909,7 +932,8 @@
       <c r="J32"/>
       <c r="K32"/>
     </row>
-    <row r="34" spans="2:11" ht="12" customHeight="1">
+    <row r="33" spans="2:11" ht="10.5" customHeight="1"/>
+    <row r="34" spans="2:11" ht="10.5" customHeight="1">
       <c r="B34" s="9"/>
       <c r="C34"/>
       <c r="D34"/>
@@ -921,7 +945,7 @@
       <c r="J34"/>
       <c r="K34"/>
     </row>
-    <row r="35" spans="2:11" ht="12" customHeight="1">
+    <row r="35" spans="2:11" ht="10.5" customHeight="1">
       <c r="B35" s="9"/>
       <c r="C35"/>
       <c r="D35"/>
@@ -933,7 +957,7 @@
       <c r="J35"/>
       <c r="K35"/>
     </row>
-    <row r="36" spans="2:11" ht="12" customHeight="1">
+    <row r="36" spans="2:11" ht="10.5" customHeight="1">
       <c r="B36" s="9"/>
       <c r="C36"/>
       <c r="D36"/>
@@ -945,7 +969,7 @@
       <c r="J36"/>
       <c r="K36"/>
     </row>
-    <row r="37" spans="2:11" ht="12" customHeight="1">
+    <row r="37" spans="2:11" ht="10.5" customHeight="1">
       <c r="B37" s="9"/>
       <c r="C37"/>
       <c r="D37"/>
@@ -957,7 +981,7 @@
       <c r="J37"/>
       <c r="K37"/>
     </row>
-    <row r="38" spans="2:11" ht="12" customHeight="1">
+    <row r="38" spans="2:11" ht="10.5" customHeight="1">
       <c r="B38" s="9"/>
       <c r="C38"/>
       <c r="D38"/>
@@ -969,7 +993,7 @@
       <c r="J38"/>
       <c r="K38"/>
     </row>
-    <row r="39" spans="2:11" ht="12" customHeight="1">
+    <row r="39" spans="2:11" ht="10.5" customHeight="1">
       <c r="B39" s="9"/>
       <c r="C39"/>
       <c r="D39"/>
@@ -981,7 +1005,7 @@
       <c r="J39"/>
       <c r="K39"/>
     </row>
-    <row r="40" spans="2:11" ht="12" customHeight="1">
+    <row r="40" spans="2:11" ht="10.5" customHeight="1">
       <c r="B40" s="9"/>
       <c r="C40"/>
       <c r="D40"/>
@@ -993,7 +1017,7 @@
       <c r="J40"/>
       <c r="K40"/>
     </row>
-    <row r="41" spans="2:11" ht="12" customHeight="1">
+    <row r="41" spans="2:11" ht="10.5" customHeight="1">
       <c r="B41" s="9"/>
       <c r="C41"/>
       <c r="D41"/>
@@ -1005,7 +1029,7 @@
       <c r="J41"/>
       <c r="K41"/>
     </row>
-    <row r="42" spans="2:11" ht="12" customHeight="1">
+    <row r="42" spans="2:11" ht="10.5" customHeight="1">
       <c r="B42" s="9"/>
       <c r="C42"/>
       <c r="D42"/>
@@ -1017,7 +1041,7 @@
       <c r="J42"/>
       <c r="K42"/>
     </row>
-    <row r="43" spans="2:11" ht="12" customHeight="1">
+    <row r="43" spans="2:11" ht="10.5" customHeight="1">
       <c r="B43" s="9"/>
       <c r="C43"/>
       <c r="D43"/>
@@ -1029,7 +1053,7 @@
       <c r="J43"/>
       <c r="K43"/>
     </row>
-    <row r="44" spans="2:11" ht="12" customHeight="1">
+    <row r="44" spans="2:11" ht="10.5" customHeight="1">
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
@@ -1041,7 +1065,7 @@
       <c r="J44"/>
       <c r="K44"/>
     </row>
-    <row r="45" spans="2:11" ht="12" customHeight="1">
+    <row r="45" spans="2:11" ht="10.5" customHeight="1">
       <c r="B45" s="9"/>
       <c r="C45"/>
       <c r="D45"/>
@@ -1053,7 +1077,7 @@
       <c r="J45"/>
       <c r="K45"/>
     </row>
-    <row r="46" spans="2:11" ht="12" customHeight="1">
+    <row r="46" spans="2:11" ht="10.5" customHeight="1">
       <c r="B46" s="9"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1065,7 +1089,7 @@
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
     </row>
-    <row r="47" spans="2:11" ht="12" customHeight="1">
+    <row r="47" spans="2:11" ht="10.5" customHeight="1">
       <c r="B47" s="9"/>
       <c r="C47"/>
       <c r="D47"/>
@@ -1077,7 +1101,7 @@
       <c r="J47"/>
       <c r="K47"/>
     </row>
-    <row r="48" spans="2:11" ht="12" customHeight="1">
+    <row r="48" spans="2:11" ht="10.5" customHeight="1">
       <c r="B48" s="9"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -1089,7 +1113,7 @@
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
     </row>
-    <row r="49" spans="2:11" ht="12" customHeight="1">
+    <row r="49" spans="2:11" ht="10.5" customHeight="1">
       <c r="B49" s="9"/>
       <c r="C49"/>
       <c r="D49"/>
@@ -1101,7 +1125,7 @@
       <c r="J49"/>
       <c r="K49"/>
     </row>
-    <row r="50" spans="2:11" ht="12" customHeight="1">
+    <row r="50" spans="2:11" ht="10.5" customHeight="1">
       <c r="B50" s="9"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -1113,7 +1137,7 @@
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
     </row>
-    <row r="51" spans="2:11" ht="12" customHeight="1">
+    <row r="51" spans="2:11" ht="10.5" customHeight="1">
       <c r="B51" s="9"/>
       <c r="C51"/>
       <c r="D51"/>
@@ -1125,7 +1149,7 @@
       <c r="J51"/>
       <c r="K51"/>
     </row>
-    <row r="52" spans="2:11" ht="12" customHeight="1">
+    <row r="52" spans="2:11" ht="10.5" customHeight="1">
       <c r="B52" s="9"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -1137,7 +1161,7 @@
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
     </row>
-    <row r="53" spans="2:11" ht="12" customHeight="1">
+    <row r="53" spans="2:11" ht="10.5" customHeight="1">
       <c r="B53" s="9"/>
       <c r="C53"/>
       <c r="D53"/>
@@ -1149,7 +1173,7 @@
       <c r="J53"/>
       <c r="K53"/>
     </row>
-    <row r="54" spans="2:11" ht="12" customHeight="1">
+    <row r="54" spans="2:11" ht="10.5" customHeight="1">
       <c r="B54" s="9"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -1161,7 +1185,7 @@
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
     </row>
-    <row r="55" spans="2:11" ht="12" customHeight="1">
+    <row r="55" spans="2:11" ht="10.5" customHeight="1">
       <c r="B55" s="9"/>
       <c r="C55"/>
       <c r="D55"/>
@@ -1173,7 +1197,7 @@
       <c r="J55"/>
       <c r="K55"/>
     </row>
-    <row r="56" spans="2:11" ht="12" customHeight="1">
+    <row r="56" spans="2:11" ht="10.5" customHeight="1">
       <c r="B56" s="9"/>
       <c r="C56"/>
       <c r="D56"/>
@@ -1185,7 +1209,7 @@
       <c r="J56"/>
       <c r="K56"/>
     </row>
-    <row r="57" spans="2:11" ht="12" customHeight="1">
+    <row r="57" spans="2:11" ht="10.5" customHeight="1">
       <c r="B57" s="9"/>
       <c r="C57"/>
       <c r="D57"/>
@@ -1197,7 +1221,7 @@
       <c r="J57"/>
       <c r="K57"/>
     </row>
-    <row r="58" spans="2:11" ht="12" customHeight="1">
+    <row r="58" spans="2:11" ht="10.5" customHeight="1">
       <c r="B58" s="9"/>
       <c r="C58"/>
       <c r="D58"/>
@@ -1209,7 +1233,7 @@
       <c r="J58"/>
       <c r="K58"/>
     </row>
-    <row r="59" spans="2:11" ht="12" customHeight="1">
+    <row r="59" spans="2:11" ht="10.5" customHeight="1">
       <c r="B59" s="2"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>

--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_E2.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_E2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22575" windowHeight="7605"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="23115" windowHeight="3795"/>
   </bookViews>
   <sheets>
     <sheet name="圧着式(Z折り)" sheetId="2" r:id="rId1"/>
@@ -63,11 +63,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -75,20 +75,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -131,7 +131,7 @@
     <font>
       <sz val="21"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -139,11 +139,23 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="IPA明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="IPA明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -271,9 +283,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -309,6 +318,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -316,8 +328,36 @@
     <cellStyle name="桁区切り 2" xfId="2"/>
     <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -435,7 +475,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -470,7 +510,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -647,7 +687,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -657,110 +697,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:K9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="6" width="9.85546875" style="1" customWidth="1"/>
+    <col min="4" max="6" width="9.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="2.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="2.125" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="10.5" customHeight="1"/>
     <row r="2" spans="2:23" ht="10.5" customHeight="1">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="2:23" ht="10.5" customHeight="1"/>
     <row r="4" spans="2:23" ht="10.5" customHeight="1"/>
     <row r="5" spans="2:23" ht="10.5" customHeight="1">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="2:23" ht="10.5" customHeight="1">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="2:23" ht="10.5" customHeight="1">
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="2:23" ht="10.5" customHeight="1">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="2:23" ht="10.5" customHeight="1">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="2:23" ht="10.5" customHeight="1"/>
@@ -790,21 +830,21 @@
       <c r="W13" s="5"/>
     </row>
     <row r="14" spans="2:23" ht="10.5" customHeight="1">
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="21" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="18" t="s">
+      <c r="H14" s="21"/>
+      <c r="I14" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
@@ -817,21 +857,21 @@
       <c r="W14" s="5"/>
     </row>
     <row r="15" spans="2:23" ht="10.5" customHeight="1">
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="23" t="s">
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="20" t="s">
+      <c r="H15" s="22"/>
+      <c r="I15" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
@@ -851,7 +891,7 @@
     <row r="21" spans="2:11" ht="10.5" customHeight="1"/>
     <row r="22" spans="2:11" ht="10.5" customHeight="1"/>
     <row r="23" spans="2:11" ht="10.5" customHeight="1">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -867,8 +907,8 @@
       <c r="K23"/>
     </row>
     <row r="24" spans="2:11" ht="10.5" customHeight="1">
-      <c r="B24" s="13"/>
-      <c r="C24" s="12">
+      <c r="B24" s="12"/>
+      <c r="C24" s="11">
         <v>9999999999</v>
       </c>
       <c r="D24"/>
@@ -882,7 +922,7 @@
     </row>
     <row r="25" spans="2:11" ht="10.5" customHeight="1">
       <c r="B25"/>
-      <c r="C25" s="11"/>
+      <c r="C25" s="23"/>
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
